--- a/input.xlsx
+++ b/input.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Master Shi\Dropbox\WorkSpace\microgridOptimalDispatch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzx\hzx_graduate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -752,7 +752,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>input!$H$2:$H$97</c:f>
+              <c:f>input!$I$2:$I$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -799,292 +799,292 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
                 <c:pt idx="0">
-                  <c:v>3623.4076</c:v>
+                  <c:v>2934.9601560000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3650.4076</c:v>
+                  <c:v>2956.830156</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3677.4076</c:v>
+                  <c:v>2978.7001559999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3704.4076</c:v>
+                  <c:v>3000.5701560000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3731.4076</c:v>
+                  <c:v>3022.4401560000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3758.4076</c:v>
+                  <c:v>3044.310156</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3785.4076</c:v>
+                  <c:v>3066.1801560000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3652.4076</c:v>
+                  <c:v>2958.4501559999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3599.4076</c:v>
+                  <c:v>2915.520156</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3566.4076</c:v>
+                  <c:v>2888.7901560000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3493.4076</c:v>
+                  <c:v>2829.6601559999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3420.4076</c:v>
+                  <c:v>2770.5301560000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3447.4076</c:v>
+                  <c:v>2792.4001560000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3374.4076</c:v>
+                  <c:v>2733.270156</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3501.4076</c:v>
+                  <c:v>2836.1401560000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3528.4076</c:v>
+                  <c:v>2858.0101559999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3555.4076</c:v>
+                  <c:v>2879.8801560000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3582.4076</c:v>
+                  <c:v>2901.7501560000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3589.4076</c:v>
+                  <c:v>2907.4201560000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3536.4076</c:v>
+                  <c:v>2864.4901560000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3563.4076</c:v>
+                  <c:v>2886.3601560000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3490.4076</c:v>
+                  <c:v>2827.2301560000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3517.4076</c:v>
+                  <c:v>2849.100156</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3444.4076</c:v>
+                  <c:v>2789.9701560000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3471.4076</c:v>
+                  <c:v>2811.8401560000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3398.4076</c:v>
+                  <c:v>2752.7101560000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3325.4076</c:v>
+                  <c:v>2693.580156</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3352.4076</c:v>
+                  <c:v>2715.4501559999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3379.4076</c:v>
+                  <c:v>2737.3201560000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3306.4076</c:v>
+                  <c:v>2678.1901560000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3333.4076</c:v>
+                  <c:v>2700.060156</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3360.4076</c:v>
+                  <c:v>2721.9301560000004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3287.4076</c:v>
+                  <c:v>3461.6402027999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3214.4076</c:v>
+                  <c:v>3384.7712028000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3141.4076</c:v>
+                  <c:v>3307.9022028000009</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3068.4076</c:v>
+                  <c:v>3231.0332027999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3195.4076</c:v>
+                  <c:v>3364.7642028000005</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3280.502</c:v>
+                  <c:v>3454.368606</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3247.2719999999999</c:v>
+                  <c:v>3419.3774160000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3414.0419999999995</c:v>
+                  <c:v>3594.986226</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3580.8119999999999</c:v>
+                  <c:v>3770.5950360000002</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3747.5819999999999</c:v>
+                  <c:v>3946.2038460000003</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3718.6343999999999</c:v>
+                  <c:v>3915.7220232</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3877.0659000000001</c:v>
+                  <c:v>4082.5503927000004</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4035.4973999999997</c:v>
+                  <c:v>4249.3787622</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4193.928899999999</c:v>
+                  <c:v>4416.2071317</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4352.3603999999996</c:v>
+                  <c:v>4508.8284009600011</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4510.7918999999993</c:v>
+                  <c:v>4536.9910965600002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5196.4369199999983</c:v>
+                  <c:v>4536.9910965600002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5312.9494800000002</c:v>
+                  <c:v>4536.9910965600002</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5429.4620400000003</c:v>
+                  <c:v>4536.9910965600002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5545.9746000000005</c:v>
+                  <c:v>4536.9910965600002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5662.4871600000006</c:v>
+                  <c:v>4536.9910965600002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5778.9997199999998</c:v>
+                  <c:v>4536.9910965600002</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5895.5122799999999</c:v>
+                  <c:v>4536.9910965600002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6012.0248399999991</c:v>
+                  <c:v>4558.0767526944001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6128.5374000000002</c:v>
+                  <c:v>4646.4119151840014</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6245.0499600000003</c:v>
+                  <c:v>4534.7470776736</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6238.4219999999978</c:v>
+                  <c:v>4529.7220235200002</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6231.7940399999998</c:v>
+                  <c:v>4424.6969693663896</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6225.1660799999991</c:v>
+                  <c:v>4224.6969693663996</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6218.5381200000002</c:v>
+                  <c:v>4219.6719152128007</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6211.9101600000004</c:v>
+                  <c:v>4214.646861059201</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6205.2821999999996</c:v>
+                  <c:v>4209.6218069056013</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6198.6542400000008</c:v>
+                  <c:v>4204.5967527520006</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6192.0262799999991</c:v>
+                  <c:v>4199.5716985984009</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6185.3983199999993</c:v>
+                  <c:v>4194.5466444448011</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6178.7703599999995</c:v>
+                  <c:v>4189.5215902911996</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6172.1423999999997</c:v>
+                  <c:v>4184.4965361375998</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5898.4967999999999</c:v>
+                  <c:v>3440.0033337600003</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5624.8512000000001</c:v>
+                  <c:v>3280.4132198400007</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5351.2055999999993</c:v>
+                  <c:v>2808.7407953280008</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4585.8893999999991</c:v>
+                  <c:v>2820.2906980800003</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4361.6143500000007</c:v>
+                  <c:v>2762.3934889200004</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4137.3392999999996</c:v>
+                  <c:v>2704.4962797600001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3913.0642499999994</c:v>
+                  <c:v>2706.8238382500003</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3688.7891999999997</c:v>
+                  <c:v>2689.1273268</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3464.5141500000004</c:v>
+                  <c:v>2525.6308153500004</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3240.2390999999998</c:v>
+                  <c:v>2362.1343039000003</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3015.9640499999996</c:v>
+                  <c:v>2198.6377924500002</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3138.62</c:v>
+                  <c:v>2288.0539800000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3243.0491999999995</c:v>
+                  <c:v>2364.1828667999994</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2959.7543999999998</c:v>
+                  <c:v>2157.6609576000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2976.4596000000001</c:v>
+                  <c:v>2169.8390484000006</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3053.1648</c:v>
+                  <c:v>2225.7571392000004</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3169.87</c:v>
+                  <c:v>2310.8352300000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3102.5752000000102</c:v>
+                  <c:v>2261.7773208000076</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3135.2804000000101</c:v>
+                  <c:v>2285.6194116000074</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3167.98560000002</c:v>
+                  <c:v>2309.4615024000145</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3200.6908000000299</c:v>
+                  <c:v>2333.3035932000221</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3353.3960000000402</c:v>
+                  <c:v>2444.6256840000297</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3386.1012000000401</c:v>
+                  <c:v>2468.4677748000295</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3318.80640000005</c:v>
+                  <c:v>2419.4098656000365</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3451.5116000000598</c:v>
+                  <c:v>2516.1519564000441</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3584.2168000000702</c:v>
+                  <c:v>2612.8940472000518</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3616.9220000000801</c:v>
+                  <c:v>2636.7361380000584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2094,7 +2094,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2146,7 +2146,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2350,8 +2350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2405,7 +2405,7 @@
         <v>808.4</v>
       </c>
       <c r="G2">
-        <v>3623.4076</v>
+        <v>2934.9601560000001</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2428,7 +2428,7 @@
         <v>810.42399999999998</v>
       </c>
       <c r="G3">
-        <v>3650.4076</v>
+        <v>2956.830156</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2451,7 +2451,7 @@
         <v>812.44799999999998</v>
       </c>
       <c r="G4">
-        <v>3677.4076</v>
+        <v>2978.7001559999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2474,7 +2474,7 @@
         <v>814.47199999999998</v>
       </c>
       <c r="G5">
-        <v>3704.4076</v>
+        <v>3000.5701560000002</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2497,7 +2497,7 @@
         <v>796.49599999999998</v>
       </c>
       <c r="G6">
-        <v>3731.4076</v>
+        <v>3022.4401560000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2520,7 +2520,7 @@
         <v>788.52</v>
       </c>
       <c r="G7">
-        <v>3758.4076</v>
+        <v>3044.310156</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2543,7 +2543,7 @@
         <v>780.54399999999998</v>
       </c>
       <c r="G8">
-        <v>3785.4076</v>
+        <v>3066.1801560000004</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2566,7 +2566,7 @@
         <v>782.56799999999998</v>
       </c>
       <c r="G9">
-        <v>3652.4076</v>
+        <v>2958.4501559999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2589,7 +2589,7 @@
         <v>774.59199999999998</v>
       </c>
       <c r="G10">
-        <v>3599.4076</v>
+        <v>2915.520156</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2612,7 +2612,7 @@
         <v>766.61599999999999</v>
       </c>
       <c r="G11">
-        <v>3566.4076</v>
+        <v>2888.7901560000005</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2635,7 +2635,7 @@
         <v>778.64</v>
       </c>
       <c r="G12">
-        <v>3493.4076</v>
+        <v>2829.6601559999999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2658,7 +2658,7 @@
         <v>760.66399999999999</v>
       </c>
       <c r="G13">
-        <v>3420.4076</v>
+        <v>2770.5301560000003</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2681,7 +2681,7 @@
         <v>752.68799999999999</v>
       </c>
       <c r="G14">
-        <v>3447.4076</v>
+        <v>2792.4001560000002</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2704,7 +2704,7 @@
         <v>736.56200000000001</v>
       </c>
       <c r="G15">
-        <v>3374.4076</v>
+        <v>2733.270156</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2727,7 +2727,7 @@
         <v>718.53599999999994</v>
       </c>
       <c r="G16">
-        <v>3501.4076</v>
+        <v>2836.1401560000004</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2750,7 +2750,7 @@
         <v>700.51</v>
       </c>
       <c r="G17">
-        <v>3528.4076</v>
+        <v>2858.0101559999998</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2773,7 +2773,7 @@
         <v>701.48400000000004</v>
       </c>
       <c r="G18">
-        <v>3555.4076</v>
+        <v>2879.8801560000002</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2796,7 +2796,7 @@
         <v>698.45799999999997</v>
       </c>
       <c r="G19">
-        <v>3582.4076</v>
+        <v>2901.7501560000001</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2819,7 +2819,7 @@
         <v>688.43200000000002</v>
       </c>
       <c r="G20">
-        <v>3589.4076</v>
+        <v>2907.4201560000001</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2842,7 +2842,7 @@
         <v>672.40599999999995</v>
       </c>
       <c r="G21">
-        <v>3536.4076</v>
+        <v>2864.4901560000003</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2865,7 +2865,7 @@
         <v>656.38</v>
       </c>
       <c r="G22">
-        <v>3563.4076</v>
+        <v>2886.3601560000002</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2888,7 +2888,7 @@
         <v>643.35400000000004</v>
       </c>
       <c r="G23">
-        <v>3490.4076</v>
+        <v>2827.2301560000001</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2911,7 +2911,7 @@
         <v>634.32799999999997</v>
       </c>
       <c r="G24">
-        <v>3517.4076</v>
+        <v>2849.100156</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -2934,7 +2934,7 @@
         <v>636.30200000000002</v>
       </c>
       <c r="G25">
-        <v>3444.4076</v>
+        <v>2789.9701560000003</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2957,7 +2957,7 @@
         <v>638.27599999999995</v>
       </c>
       <c r="G26">
-        <v>3471.4076</v>
+        <v>2811.8401560000002</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2980,7 +2980,7 @@
         <v>625.98</v>
       </c>
       <c r="G27">
-        <v>3398.4076</v>
+        <v>2752.7101560000001</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -3003,7 +3003,7 @@
         <v>607.83000000000004</v>
       </c>
       <c r="G28">
-        <v>3325.4076</v>
+        <v>2693.580156</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -3026,7 +3026,7 @@
         <v>609.67999999999995</v>
       </c>
       <c r="G29">
-        <v>3352.4076</v>
+        <v>2715.4501559999999</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -3049,7 +3049,7 @@
         <v>611.53</v>
       </c>
       <c r="G30">
-        <v>3379.4076</v>
+        <v>2737.3201560000002</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -3072,7 +3072,7 @@
         <v>613.38</v>
       </c>
       <c r="G31">
-        <v>3306.4076</v>
+        <v>2678.1901560000001</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -3095,7 +3095,7 @@
         <v>615.23</v>
       </c>
       <c r="G32">
-        <v>3333.4076</v>
+        <v>2700.060156</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -3118,7 +3118,7 @@
         <v>617.08000000000004</v>
       </c>
       <c r="G33">
-        <v>3360.4076</v>
+        <v>2721.9301560000004</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -3141,7 +3141,7 @@
         <v>618.92999999999995</v>
       </c>
       <c r="G34">
-        <v>3287.4076</v>
+        <v>3461.6402027999998</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -3164,7 +3164,7 @@
         <v>620.78</v>
       </c>
       <c r="G35">
-        <v>3214.4076</v>
+        <v>3384.7712028000001</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -3187,7 +3187,7 @@
         <v>622.63</v>
       </c>
       <c r="G36">
-        <v>3141.4076</v>
+        <v>3307.9022028000009</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -3210,7 +3210,7 @@
         <v>624.48</v>
       </c>
       <c r="G37">
-        <v>3068.4076</v>
+        <v>3231.0332027999998</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -3233,7 +3233,7 @@
         <v>626.33000000000004</v>
       </c>
       <c r="G38">
-        <v>3195.4076</v>
+        <v>3364.7642028000005</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -3256,7 +3256,7 @@
         <v>628.17999999999995</v>
       </c>
       <c r="G39">
-        <v>3280.502</v>
+        <v>3454.368606</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -3279,7 +3279,7 @@
         <v>634.03</v>
       </c>
       <c r="G40">
-        <v>3247.2719999999999</v>
+        <v>3419.3774160000003</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -3302,7 +3302,7 @@
         <v>638.88</v>
       </c>
       <c r="G41">
-        <v>3414.0419999999995</v>
+        <v>3594.986226</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -3325,7 +3325,7 @@
         <v>655.73</v>
       </c>
       <c r="G42">
-        <v>3580.8119999999999</v>
+        <v>3770.5950360000002</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -3348,7 +3348,7 @@
         <v>666.58</v>
       </c>
       <c r="G43">
-        <v>3747.5819999999999</v>
+        <v>3946.2038460000003</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -3371,7 +3371,7 @@
         <v>687.43</v>
       </c>
       <c r="G44">
-        <v>3718.6343999999999</v>
+        <v>3915.7220232</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -3394,7 +3394,7 @@
         <v>787.61360000000002</v>
       </c>
       <c r="G45">
-        <v>3877.0659000000001</v>
+        <v>4082.5503927000004</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3417,7 +3417,7 @@
         <v>794.53279999999995</v>
       </c>
       <c r="G46">
-        <v>4035.4973999999997</v>
+        <v>4249.3787622</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -3440,7 +3440,7 @@
         <v>802.89200000000005</v>
       </c>
       <c r="G47">
-        <v>4193.928899999999</v>
+        <v>4416.2071317</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -3463,7 +3463,7 @@
         <v>811.25119999999993</v>
       </c>
       <c r="G48">
-        <v>4352.3603999999996</v>
+        <v>4508.8284009600011</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -3486,7 +3486,7 @@
         <v>827.38639999999998</v>
       </c>
       <c r="G49">
-        <v>4510.7918999999993</v>
+        <v>4536.9910965600002</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -3509,7 +3509,7 @@
         <v>843.52159999999992</v>
       </c>
       <c r="G50">
-        <v>5196.4369199999983</v>
+        <v>4536.9910965600002</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -3532,7 +3532,7 @@
         <v>857.95040000000006</v>
       </c>
       <c r="G51">
-        <v>5312.9494800000002</v>
+        <v>4536.9910965600002</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -3555,7 +3555,7 @@
         <v>832.37919999999997</v>
       </c>
       <c r="G52">
-        <v>5429.4620400000003</v>
+        <v>4536.9910965600002</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -3578,7 +3578,7 @@
         <v>843.84159999999997</v>
       </c>
       <c r="G53">
-        <v>5545.9746000000005</v>
+        <v>4536.9910965600002</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -3601,7 +3601,7 @@
         <v>848.10400000000004</v>
       </c>
       <c r="G54">
-        <v>5662.4871600000006</v>
+        <v>4536.9910965600002</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -3624,7 +3624,7 @@
         <v>852.3664</v>
       </c>
       <c r="G55">
-        <v>5778.9997199999998</v>
+        <v>4536.9910965600002</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -3647,7 +3647,7 @@
         <v>856.62879999999996</v>
       </c>
       <c r="G56">
-        <v>5895.5122799999999</v>
+        <v>4536.9910965600002</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -3670,7 +3670,7 @@
         <v>860.89120000000003</v>
       </c>
       <c r="G57">
-        <v>6012.0248399999991</v>
+        <v>4558.0767526944001</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -3693,7 +3693,7 @@
         <v>864.03520000000003</v>
       </c>
       <c r="G58">
-        <v>6128.5374000000002</v>
+        <v>4646.4119151840014</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -3716,7 +3716,7 @@
         <v>888.97119999999995</v>
       </c>
       <c r="G59">
-        <v>6245.0499600000003</v>
+        <v>4534.7470776736</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -3739,7 +3739,7 @@
         <v>881.50720000000001</v>
       </c>
       <c r="G60">
-        <v>6238.4219999999978</v>
+        <v>4529.7220235200002</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -3762,7 +3762,7 @@
         <v>885.19679999999994</v>
       </c>
       <c r="G61">
-        <v>6231.7940399999998</v>
+        <v>4424.6969693663896</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -3785,7 +3785,7 @@
         <v>928.88639999999998</v>
       </c>
       <c r="G62">
-        <v>6225.1660799999991</v>
+        <v>4224.6969693663996</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -3808,7 +3808,7 @@
         <v>996.47519999999986</v>
       </c>
       <c r="G63">
-        <v>6218.5381200000002</v>
+        <v>4219.6719152128007</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -3831,7 +3831,7 @@
         <v>1004.0639999999999</v>
       </c>
       <c r="G64">
-        <v>6211.9101600000004</v>
+        <v>4214.646861059201</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -3854,7 +3854,7 @@
         <v>996.4896</v>
       </c>
       <c r="G65">
-        <v>6205.2821999999996</v>
+        <v>4209.6218069056013</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -3877,7 +3877,7 @@
         <v>988.91519999999991</v>
       </c>
       <c r="G66">
-        <v>6198.6542400000008</v>
+        <v>4204.5967527520006</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -3900,7 +3900,7 @@
         <v>921.21119999999996</v>
       </c>
       <c r="G67">
-        <v>6192.0262799999991</v>
+        <v>4199.5716985984009</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -3923,7 +3923,7 @@
         <v>913.5071999999999</v>
       </c>
       <c r="G68">
-        <v>6185.3983199999993</v>
+        <v>4194.5466444448011</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -3946,7 +3946,7 @@
         <v>910.49039999999991</v>
       </c>
       <c r="G69">
-        <v>6178.7703599999995</v>
+        <v>4189.5215902911996</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -3969,7 +3969,7 @@
         <v>871.47359999999992</v>
       </c>
       <c r="G70">
-        <v>6172.1423999999997</v>
+        <v>4184.4965361375998</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -3992,7 +3992,7 @@
         <v>790.46400000000006</v>
       </c>
       <c r="G71">
-        <v>5898.4967999999999</v>
+        <v>3440.0033337600003</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -4015,7 +4015,7 @@
         <v>769.45439999999996</v>
       </c>
       <c r="G72">
-        <v>5624.8512000000001</v>
+        <v>3280.4132198400007</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -4038,7 +4038,7 @@
         <v>738.25439999999992</v>
       </c>
       <c r="G73">
-        <v>5351.2055999999993</v>
+        <v>2808.7407953280008</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -4061,7 +4061,7 @@
         <v>707.05439999999999</v>
       </c>
       <c r="G74">
-        <v>4585.8893999999991</v>
+        <v>2820.2906980800003</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -4084,7 +4084,7 @@
         <v>705.85439999999994</v>
       </c>
       <c r="G75">
-        <v>4361.6143500000007</v>
+        <v>2762.3934889200004</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -4107,7 +4107,7 @@
         <v>704.65440000000001</v>
       </c>
       <c r="G76">
-        <v>4137.3392999999996</v>
+        <v>2704.4962797600001</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -4130,7 +4130,7 @@
         <v>703.45439999999996</v>
       </c>
       <c r="G77">
-        <v>3913.0642499999994</v>
+        <v>2706.8238382500003</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -4153,7 +4153,7 @@
         <v>702.25439999999992</v>
       </c>
       <c r="G78">
-        <v>3688.7891999999997</v>
+        <v>2689.1273268</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -4176,7 +4176,7 @@
         <v>696.55920000000003</v>
       </c>
       <c r="G79">
-        <v>3464.5141500000004</v>
+        <v>2525.6308153500004</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -4199,7 +4199,7 @@
         <v>710.99519999999995</v>
       </c>
       <c r="G80">
-        <v>3240.2390999999998</v>
+        <v>2362.1343039000003</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -4222,7 +4222,7 @@
         <v>684.25439999999992</v>
       </c>
       <c r="G81">
-        <v>3015.9640499999996</v>
+        <v>2198.6377924500002</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -4245,7 +4245,7 @@
         <v>675.5136</v>
       </c>
       <c r="G82">
-        <v>3138.62</v>
+        <v>2288.0539800000001</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -4268,7 +4268,7 @@
         <v>648.77279999999996</v>
       </c>
       <c r="G83">
-        <v>3243.0491999999995</v>
+        <v>2364.1828667999994</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -4291,7 +4291,7 @@
         <v>722.03200000000004</v>
       </c>
       <c r="G84">
-        <v>2959.7543999999998</v>
+        <v>2157.6609576000001</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -4314,7 +4314,7 @@
         <v>717</v>
       </c>
       <c r="G85">
-        <v>2976.4596000000001</v>
+        <v>2169.8390484000006</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -4337,7 +4337,7 @@
         <v>711.96799999999996</v>
       </c>
       <c r="G86">
-        <v>3053.1648</v>
+        <v>2225.7571392000004</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -4360,7 +4360,7 @@
         <v>706.93600000000004</v>
       </c>
       <c r="G87">
-        <v>3169.87</v>
+        <v>2310.8352300000001</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -4383,7 +4383,7 @@
         <v>701.904</v>
       </c>
       <c r="G88">
-        <v>3102.5752000000102</v>
+        <v>2261.7773208000076</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -4406,7 +4406,7 @@
         <v>696.87200000000007</v>
       </c>
       <c r="G89">
-        <v>3135.2804000000101</v>
+        <v>2285.6194116000074</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -4429,7 +4429,7 @@
         <v>691.84</v>
       </c>
       <c r="G90">
-        <v>3167.98560000002</v>
+        <v>2309.4615024000145</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -4452,7 +4452,7 @@
         <v>686.80799999999999</v>
       </c>
       <c r="G91">
-        <v>3200.6908000000299</v>
+        <v>2333.3035932000221</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -4475,7 +4475,7 @@
         <v>681.77600000000007</v>
       </c>
       <c r="G92">
-        <v>3353.3960000000402</v>
+        <v>2444.6256840000297</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -4498,7 +4498,7 @@
         <v>676.74400000000003</v>
       </c>
       <c r="G93">
-        <v>3386.1012000000401</v>
+        <v>2468.4677748000295</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -4521,7 +4521,7 @@
         <v>671.71199999999999</v>
       </c>
       <c r="G94">
-        <v>3318.80640000005</v>
+        <v>2419.4098656000365</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -4544,7 +4544,7 @@
         <v>666.68000000000006</v>
       </c>
       <c r="G95">
-        <v>3451.5116000000598</v>
+        <v>2516.1519564000441</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -4567,7 +4567,7 @@
         <v>661.64800000000002</v>
       </c>
       <c r="G96">
-        <v>3584.2168000000702</v>
+        <v>2612.8940472000518</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -4590,7 +4590,7 @@
         <v>656.61599999999999</v>
       </c>
       <c r="G97">
-        <v>3616.9220000000801</v>
+        <v>2636.7361380000584</v>
       </c>
     </row>
   </sheetData>
